--- a/2.PreliminaryDesign/点餐系统测试用例.xlsx
+++ b/2.PreliminaryDesign/点餐系统测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21431" windowHeight="8280" activeTab="2"/>
+    <workbookView windowWidth="21431" windowHeight="8280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="界面测试用例" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,30 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+  <si>
+    <t>界面测试用例</t>
+  </si>
+  <si>
+    <t>普通用户功能测试</t>
+  </si>
+  <si>
+    <t>管理员功能测试</t>
+  </si>
+  <si>
+    <t>登录时选择管理员身份</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -32,6 +49,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -39,16 +121,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -62,119 +137,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -182,6 +144,61 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -192,25 +209,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,7 +311,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,25 +359,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,36 +383,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -301,78 +390,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,6 +400,65 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -405,33 +481,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,192 +500,168 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -985,14 +1011,61 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A7" sqref="A7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" ht="15.6" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:H18"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1002,14 +1075,30 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1019,14 +1108,50 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/2.PreliminaryDesign/点餐系统测试用例.xlsx
+++ b/2.PreliminaryDesign/点餐系统测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21431" windowHeight="8280" activeTab="1"/>
+    <workbookView windowWidth="21431" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="界面测试用例" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <t>界面测试用例</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>条件</t>
+  </si>
+  <si>
+    <t>结果</t>
+  </si>
+  <si>
+    <t>打开页面，没有登录状态</t>
+  </si>
+  <si>
+    <t>跳转到登录页面</t>
   </si>
   <si>
     <t>普通用户功能测试</t>
@@ -35,10 +50,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -49,7 +64,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -63,8 +79,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -86,38 +110,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,6 +147,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -153,8 +177,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,9 +187,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,17 +209,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,13 +225,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,169 +405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,6 +416,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -412,26 +443,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,22 +496,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -511,7 +527,7 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -520,137 +536,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -660,8 +676,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1011,60 +1033,283 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="7" max="7" width="6.88888888888889" customWidth="1"/>
+    <col min="8" max="8" width="9" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33333333333333" customWidth="1"/>
+    <col min="10" max="10" width="15.1111111111111" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:2">
+    <row r="1" ht="20.4" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:H18"/>
+  <mergeCells count="26">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:I26"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1077,15 +1322,15 @@
   <sheetPr/>
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1111,14 +1356,14 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F3"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1130,7 +1375,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/2.PreliminaryDesign/点餐系统测试用例.xlsx
+++ b/2.PreliminaryDesign/点餐系统测试用例.xlsx
@@ -50,10 +50,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -73,22 +73,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,15 +153,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,15 +179,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,69 +202,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,187 +225,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,61 +419,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,8 +446,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,6 +492,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -524,149 +524,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -674,9 +674,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1036,7 +1033,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="B4" sqref="B4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1060,23 +1057,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="5"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="3" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1172,115 +1169,115 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="26">

--- a/2.PreliminaryDesign/点餐系统测试用例.xlsx
+++ b/2.PreliminaryDesign/点餐系统测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21431" windowHeight="8280" activeTab="1"/>
+    <workbookView windowWidth="21863" windowHeight="10115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="界面测试用例" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>界面测试用例</t>
   </si>
@@ -24,10 +24,106 @@
     <t>普通用户功能测试</t>
   </si>
   <si>
+    <t>编 号</t>
+  </si>
+  <si>
+    <t>测试目的</t>
+  </si>
+  <si>
+    <t>账号测试数据</t>
+  </si>
+  <si>
+    <t>密码测试数据</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>部门</t>
+  </si>
+  <si>
+    <t>员工号</t>
+  </si>
+  <si>
+    <t>页面操作</t>
+  </si>
+  <si>
+    <t>预期结果</t>
+  </si>
+  <si>
+    <t>实际结果</t>
+  </si>
+  <si>
+    <t>备注(预期结果与实际结果比较)</t>
+  </si>
+  <si>
+    <t>注册功能</t>
+  </si>
+  <si>
+    <t>空</t>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>请填写注册信息</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>老王</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>请设置账号</t>
+  </si>
+  <si>
+    <t>吴亦凡</t>
+  </si>
+  <si>
+    <t>请输入正确的账号</t>
+  </si>
+  <si>
+    <t>000001</t>
+  </si>
+  <si>
+    <t>000002</t>
+  </si>
+  <si>
+    <t>000003</t>
+  </si>
+  <si>
+    <t>000004</t>
+  </si>
+  <si>
+    <t>请设置密码</t>
+  </si>
+  <si>
+    <t>请设置合法的密码</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>00000</t>
+  </si>
+  <si>
+    <t>请输入姓名</t>
+  </si>
+  <si>
+    <t>请输入部门</t>
+  </si>
+  <si>
     <t>管理员功能测试</t>
-  </si>
-  <si>
-    <t>登录时选择管理员身份</t>
   </si>
 </sst>
 </file>
@@ -36,8 +132,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -57,14 +153,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,13 +219,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -100,8 +227,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,21 +276,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,64 +289,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,187 +305,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,6 +496,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -427,22 +558,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,45 +596,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -508,10 +604,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -520,148 +616,169 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1014,26 +1131,24 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:H7"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" ht="15.6" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:6">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1"/>
@@ -1046,9 +1161,8 @@
       <c r="H3" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="17">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A5:H5"/>
@@ -1075,30 +1189,590 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="14.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="19.8888888888889" customWidth="1"/>
+    <col min="4" max="8" width="15.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="19.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="13.5555555555556" customWidth="1"/>
+    <col min="11" max="11" width="30.7777777777778" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="11:20">
+      <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:11">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <v>110</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>111</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <v>112</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>113</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>114</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9">
+        <v>115</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>111</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10">
+        <v>116</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>1111</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11">
+        <v>117</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>11111</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12">
+        <v>118</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>111111</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13">
+        <v>119</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>111111</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14">
+        <v>120</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>111111</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15">
+        <v>121</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>111111</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16">
+        <v>122</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>111111</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17">
+        <v>123</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>111111</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18">
+        <v>124</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>111111</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19">
+        <v>125</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>111111</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20">
+        <v>126</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>111111</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1111,14 +1785,14 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F3"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1127,11 +1801,6 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/2.PreliminaryDesign/点餐系统测试用例.xlsx
+++ b/2.PreliminaryDesign/点餐系统测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>界面测试用例</t>
   </si>
@@ -69,6 +69,9 @@
     <t>请填写注册信息</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>000000</t>
   </si>
   <si>
@@ -121,6 +124,12 @@
   </si>
   <si>
     <t>请输入部门</t>
+  </si>
+  <si>
+    <t>请输入员工号</t>
+  </si>
+  <si>
+    <t>注册成功</t>
   </si>
   <si>
     <t>管理员功能测试</t>
@@ -131,9 +140,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -153,6 +162,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -163,6 +179,98 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,71 +283,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,50 +298,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -305,19 +314,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,43 +470,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,115 +488,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,6 +505,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -543,21 +582,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -581,21 +605,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -604,145 +613,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -765,17 +774,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1148,7 +1154,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="7"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1"/>
@@ -1189,10 +1195,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1243,7 +1249,7 @@
       <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -1253,7 +1259,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="1:21">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
@@ -1278,8 +1287,14 @@
       <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="2:9">
+      <c r="U3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>2</v>
+      </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
@@ -1287,13 +1302,13 @@
         <v>14</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4">
         <v>110</v>
@@ -1302,10 +1317,13 @@
         <v>15</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>3</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1316,10 +1334,10 @@
         <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5">
         <v>111</v>
@@ -1331,7 +1349,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>4</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1345,7 +1366,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6">
         <v>112</v>
@@ -1357,7 +1378,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>5</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1383,7 +1407,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>6</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1391,13 +1418,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8">
         <v>114</v>
@@ -1406,10 +1433,13 @@
         <v>15</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>7</v>
+      </c>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1417,13 +1447,13 @@
         <v>11</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9">
         <v>115</v>
@@ -1432,10 +1462,13 @@
         <v>15</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>8</v>
+      </c>
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1443,13 +1476,13 @@
         <v>111</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G10">
         <v>116</v>
@@ -1458,10 +1491,13 @@
         <v>15</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>9</v>
+      </c>
       <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
@@ -1469,13 +1505,13 @@
         <v>1111</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <v>117</v>
@@ -1484,10 +1520,13 @@
         <v>15</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>10</v>
+      </c>
       <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1495,13 +1534,13 @@
         <v>11111</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G12">
         <v>118</v>
@@ -1510,10 +1549,13 @@
         <v>15</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>11</v>
+      </c>
       <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
@@ -1524,10 +1566,10 @@
         <v>14</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13">
         <v>119</v>
@@ -1536,10 +1578,13 @@
         <v>15</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>12</v>
+      </c>
       <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
@@ -1550,10 +1595,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G14">
         <v>120</v>
@@ -1562,24 +1607,27 @@
         <v>15</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>13</v>
+      </c>
       <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C15">
         <v>111111</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>29</v>
+      <c r="D15" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G15">
         <v>121</v>
@@ -1588,10 +1636,16 @@
         <v>15</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
+        <v>29</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>14</v>
+      </c>
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
@@ -1599,13 +1653,13 @@
         <v>111111</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G16">
         <v>122</v>
@@ -1614,10 +1668,13 @@
         <v>15</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>15</v>
+      </c>
       <c r="B17" s="5" t="s">
         <v>13</v>
       </c>
@@ -1625,13 +1682,13 @@
         <v>111111</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G17">
         <v>123</v>
@@ -1640,10 +1697,13 @@
         <v>15</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>16</v>
+      </c>
       <c r="B18" s="5" t="s">
         <v>13</v>
       </c>
@@ -1651,13 +1711,13 @@
         <v>111111</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G18">
         <v>124</v>
@@ -1666,10 +1726,13 @@
         <v>15</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>17</v>
+      </c>
       <c r="B19" s="5" t="s">
         <v>13</v>
       </c>
@@ -1677,13 +1740,13 @@
         <v>111111</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G19">
         <v>125</v>
@@ -1692,10 +1755,13 @@
         <v>15</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>18</v>
+      </c>
       <c r="B20" s="5" t="s">
         <v>13</v>
       </c>
@@ -1703,10 +1769,10 @@
         <v>111111</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>14</v>
@@ -1718,10 +1784,13 @@
         <v>15</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>19</v>
+      </c>
       <c r="B21" s="5" t="s">
         <v>13</v>
       </c>
@@ -1729,47 +1798,138 @@
         <v>111111</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
+        <v>18</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>20</v>
+      </c>
       <c r="B22" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
+      <c r="C22">
+        <v>111111</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>127</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>21</v>
+      </c>
       <c r="B23" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="2:2">
+      <c r="C23">
+        <v>111111</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>22</v>
+      </c>
       <c r="B24" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>23</v>
+      </c>
       <c r="B25" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>24</v>
+      </c>
       <c r="B26" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>25</v>
+      </c>
       <c r="B27" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>26</v>
+      </c>
       <c r="B28" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>27</v>
+      </c>
       <c r="B29" s="5" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1952,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>

--- a/2.PreliminaryDesign/点餐系统测试用例.xlsx
+++ b/2.PreliminaryDesign/点餐系统测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21863" windowHeight="10115" activeTab="1"/>
+    <workbookView windowWidth="21431" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="界面测试用例" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>界面测试用例</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>操作</t>
+  </si>
+  <si>
+    <t>结果</t>
+  </si>
+  <si>
+    <t>未进行登录打开页面</t>
+  </si>
+  <si>
+    <t>进入登录页面</t>
   </si>
   <si>
     <t>普通用户功能测试</t>
@@ -133,8 +148,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -145,10 +160,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,6 +183,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -174,6 +257,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -182,23 +273,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,61 +298,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,13 +311,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -305,61 +321,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,121 +501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,6 +512,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -516,28 +556,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -554,6 +576,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,23 +607,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,10 +620,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,133 +632,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -765,17 +781,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1128,57 +1141,205 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="7"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:2">
+    <row r="1" ht="17.4" spans="1:9">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:6">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" s="3" customFormat="1" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:H18"/>
+  <mergeCells count="45">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="H23:I23"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1191,7 +1352,7 @@
   <sheetPr/>
   <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -1208,7 +1369,7 @@
   <sheetData>
     <row r="1" spans="11:20">
       <c r="K1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L1" s="1"/>
       <c r="O1" s="1"/>
@@ -1220,328 +1381,328 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G4">
         <v>110</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G5">
         <v>111</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G6">
         <v>112</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G7">
         <v>113</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G8">
         <v>114</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>11</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G9">
         <v>115</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>111</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="G10">
         <v>116</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>1111</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G11">
         <v>117</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>11111</v>
       </c>
       <c r="D12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G12">
         <v>118</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>111111</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G13">
         <v>119</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <v>111111</v>
@@ -1550,226 +1711,226 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G14">
         <v>120</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>111111</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>29</v>
+      <c r="D15" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G15">
         <v>121</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>111111</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G16">
         <v>122</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>111111</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G17">
         <v>123</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>111111</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G18">
         <v>124</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>111111</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G19">
         <v>125</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>111111</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G20">
         <v>126</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <v>111111</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1792,7 +1953,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>

--- a/2.PreliminaryDesign/点餐系统测试用例.xlsx
+++ b/2.PreliminaryDesign/点餐系统测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21863" windowHeight="10115" activeTab="1"/>
+    <workbookView windowWidth="17388" windowHeight="10524" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="界面测试用例" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>界面测试用例</t>
   </si>
@@ -75,7 +75,7 @@
     <t>000000</t>
   </si>
   <si>
-    <t>老王</t>
+    <t>吴亦凡</t>
   </si>
   <si>
     <t>IT</t>
@@ -84,9 +84,6 @@
     <t>请设置账号</t>
   </si>
   <si>
-    <t>吴亦凡</t>
-  </si>
-  <si>
     <t>请输入正确的账号</t>
   </si>
   <si>
@@ -130,6 +127,33 @@
   </si>
   <si>
     <t>注册成功</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>账号、密码错误</t>
+  </si>
+  <si>
+    <t>账号错误</t>
+  </si>
+  <si>
+    <t>密码错误</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>登陆成功</t>
+  </si>
+  <si>
+    <t>修改个人信息</t>
+  </si>
+  <si>
+    <t>点餐</t>
+  </si>
+  <si>
+    <t>取消点餐</t>
   </si>
   <si>
     <t>管理员功能测试</t>
@@ -141,9 +165,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -162,43 +186,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,17 +207,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,16 +245,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,7 +261,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -290,6 +306,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -297,13 +328,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -314,187 +338,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,17 +532,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,17 +571,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,8 +598,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,15 +610,6 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -596,15 +629,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -613,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,7 +649,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,124 +658,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -774,14 +798,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1154,7 +1184,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="6"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1"/>
@@ -1195,10 +1225,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1249,7 +1279,7 @@
       <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -1421,7 +1451,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>20</v>
@@ -1433,7 +1463,7 @@
         <v>15</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1447,10 +1477,10 @@
         <v>11</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>20</v>
@@ -1462,7 +1492,7 @@
         <v>15</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1476,10 +1506,10 @@
         <v>111</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>20</v>
@@ -1491,7 +1521,7 @@
         <v>15</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1505,10 +1535,10 @@
         <v>1111</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>20</v>
@@ -1520,7 +1550,7 @@
         <v>15</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1534,10 +1564,10 @@
         <v>11111</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>20</v>
@@ -1549,7 +1579,7 @@
         <v>15</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1566,7 +1596,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>20</v>
@@ -1578,7 +1608,7 @@
         <v>15</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1595,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>20</v>
@@ -1607,7 +1637,7 @@
         <v>15</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1621,10 +1651,10 @@
         <v>111111</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>20</v>
@@ -1636,7 +1666,7 @@
         <v>15</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15" t="s">
         <v>17</v>
@@ -1653,10 +1683,10 @@
         <v>111111</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>20</v>
@@ -1668,7 +1698,7 @@
         <v>15</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1682,10 +1712,10 @@
         <v>111111</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>20</v>
@@ -1697,7 +1727,7 @@
         <v>15</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1711,10 +1741,10 @@
         <v>111111</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>20</v>
@@ -1726,7 +1756,7 @@
         <v>15</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1755,7 +1785,7 @@
         <v>15</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1772,7 +1802,7 @@
         <v>18</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>14</v>
@@ -1784,7 +1814,7 @@
         <v>15</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1801,7 +1831,7 @@
         <v>18</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>20</v>
@@ -1812,8 +1842,8 @@
       <c r="H21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>36</v>
+      <c r="I21" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1830,7 +1860,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>20</v>
@@ -1842,94 +1872,475 @@
         <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23">
-        <v>111111</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>37</v>
+      </c>
+      <c r="C25">
+        <v>111111</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>37</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>37</v>
+      </c>
+      <c r="C27">
+        <v>11</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>37</v>
+      </c>
+      <c r="C28">
+        <v>111</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>37</v>
+      </c>
+      <c r="C29">
+        <v>1111</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30">
+        <v>11111</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31">
+        <v>111111</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32">
+        <v>111111</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33">
+        <v>111111</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>32</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <v>111111</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35">
+        <v>111111</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>111111</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1942,17 +2353,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1963,23 +2374,8 @@
       <c r="H1" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2.PreliminaryDesign/点餐系统测试用例.xlsx
+++ b/2.PreliminaryDesign/点餐系统测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17388" windowHeight="10524" activeTab="1"/>
+    <workbookView windowWidth="21431" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="界面测试用例" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>界面测试用例</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>操作</t>
+  </si>
+  <si>
+    <t>结果</t>
   </si>
   <si>
     <t>普通用户功能测试</t>
@@ -164,10 +173,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -178,10 +187,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,9 +225,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,8 +247,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,7 +264,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,25 +311,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,17 +325,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,37 +338,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -338,187 +348,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,15 +539,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -575,6 +576,30 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -597,15 +622,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -615,17 +631,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,149 +647,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -798,9 +808,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -812,9 +819,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1164,57 +1168,378 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:2">
-      <c r="A1" s="8" t="s">
+    <row r="1" ht="17.4" spans="1:10">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:6">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A18:H18"/>
+  <mergeCells count="45">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="I23:J23"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1227,8 +1552,8 @@
   <sheetPr/>
   <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1244,7 +1569,7 @@
   <sheetData>
     <row r="1" spans="11:20">
       <c r="K1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L1" s="1"/>
       <c r="O1" s="1"/>
@@ -1256,37 +1581,37 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1294,31 +1619,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="U3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1326,28 +1651,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G4">
         <v>110</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1355,28 +1680,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G5">
         <v>111</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1384,28 +1709,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G6">
         <v>112</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1413,28 +1738,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G7">
         <v>113</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1442,28 +1767,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>18</v>
+      <c r="D8" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G8">
         <v>114</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1471,28 +1796,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>11</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="G9">
         <v>115</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1500,28 +1825,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>111</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>24</v>
+      <c r="D10" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G10">
         <v>116</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1529,28 +1854,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>1111</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>25</v>
+      <c r="D11" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G11">
         <v>117</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1558,28 +1883,28 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <v>11111</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>26</v>
+      <c r="D12" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G12">
         <v>118</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1587,28 +1912,28 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C13">
         <v>111111</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G13">
         <v>119</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1616,7 +1941,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>111111</v>
@@ -1625,19 +1950,19 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G14">
         <v>120</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1645,31 +1970,31 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>111111</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>29</v>
+      <c r="D15" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G15">
         <v>121</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1677,28 +2002,28 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>111111</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>30</v>
+      <c r="D16" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G16">
         <v>122</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1706,28 +2031,28 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>111111</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>31</v>
+      <c r="D17" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G17">
         <v>123</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1735,28 +2060,28 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>111111</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>32</v>
+      <c r="D18" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G18">
         <v>124</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1764,28 +2089,28 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>111111</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>18</v>
+      <c r="D19" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G19">
         <v>125</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1793,28 +2118,28 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C20">
         <v>111111</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>18</v>
+      <c r="D20" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G20">
         <v>126</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1822,28 +2147,28 @@
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C21">
         <v>111111</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="I21" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1851,28 +2176,28 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C22">
         <v>111111</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>18</v>
+      <c r="D22" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G22">
         <v>127</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1880,19 +2205,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="I23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1900,19 +2225,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1920,19 +2245,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>111111</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1940,19 +2265,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>37</v>
+      <c r="D26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="I26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1960,19 +2285,19 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>11</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>37</v>
+      <c r="D27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="I27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1980,19 +2305,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>111</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>37</v>
+      <c r="D28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="I28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2000,19 +2325,19 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C29">
         <v>1111</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>37</v>
+      <c r="D29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="I29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2020,19 +2345,19 @@
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C30">
         <v>11111</v>
       </c>
-      <c r="D30" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>37</v>
+      <c r="D30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="I30" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2040,19 +2365,19 @@
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C31">
         <v>111111</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" t="s">
         <v>41</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I31" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2060,19 +2385,19 @@
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C32">
         <v>111111</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>37</v>
+      <c r="D32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="I32" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2080,19 +2405,19 @@
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C33">
         <v>111111</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>37</v>
+      <c r="D33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="I33" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2100,19 +2425,19 @@
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C34">
         <v>111111</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>37</v>
+      <c r="D34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="I34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2120,19 +2445,19 @@
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C35">
         <v>111111</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>37</v>
+      <c r="D35" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="I35" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2140,19 +2465,19 @@
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C36">
         <v>111111</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>37</v>
+      <c r="D36" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="I36" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2160,7 +2485,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2168,7 +2493,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2176,7 +2501,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2184,7 +2509,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2192,7 +2517,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2200,7 +2525,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2208,7 +2533,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2216,7 +2541,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2224,7 +2549,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2232,7 +2557,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2240,7 +2565,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2248,7 +2573,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2256,7 +2581,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2264,7 +2589,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2272,7 +2597,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2280,7 +2605,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2288,7 +2613,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2296,7 +2621,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2304,7 +2629,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2312,7 +2637,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2320,7 +2645,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -2363,7 +2688,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>

--- a/2.PreliminaryDesign/点餐系统测试用例.xlsx
+++ b/2.PreliminaryDesign/点餐系统测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21431" windowHeight="8280"/>
+    <workbookView windowWidth="22368" windowHeight="9947" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="界面测试用例" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
   <si>
     <t>界面测试用例</t>
   </si>
@@ -24,21 +24,60 @@
     <t>编号</t>
   </si>
   <si>
+    <t>测试目的</t>
+  </si>
+  <si>
     <t>操作</t>
   </si>
   <si>
     <t>结果</t>
   </si>
   <si>
+    <t>界面跳转</t>
+  </si>
+  <si>
+    <t>未登录情况打开页面</t>
+  </si>
+  <si>
+    <t>打开登录页面</t>
+  </si>
+  <si>
+    <t>在登录页面选择注册</t>
+  </si>
+  <si>
+    <t>跳转到注册页面</t>
+  </si>
+  <si>
+    <t>在注册页面选择登录</t>
+  </si>
+  <si>
+    <t>跳转到登录页面</t>
+  </si>
+  <si>
+    <t>在用户操作界面选择个人信息</t>
+  </si>
+  <si>
+    <t>跳转到个人信息详情页</t>
+  </si>
+  <si>
+    <t>选择修改信息</t>
+  </si>
+  <si>
+    <t>跳转到修改信息页</t>
+  </si>
+  <si>
+    <t>选择今日推荐菜单</t>
+  </si>
+  <si>
+    <t>跳转到今日推荐菜单页面</t>
+  </si>
+  <si>
     <t>普通用户功能测试</t>
   </si>
   <si>
     <t>编 号</t>
   </si>
   <si>
-    <t>测试目的</t>
-  </si>
-  <si>
     <t>账号测试数据</t>
   </si>
   <si>
@@ -166,6 +205,62 @@
   </si>
   <si>
     <t>管理员功能测试</t>
+  </si>
+  <si>
+    <t>测试前置条件</t>
+  </si>
+  <si>
+    <t>测试数据</t>
+  </si>
+  <si>
+    <t>登录功能</t>
+  </si>
+  <si>
+    <t>只有一个管理员
+用户名：admin
+密码：123456</t>
+  </si>
+  <si>
+    <t>用户名：（空）
+密码：（空）</t>
+  </si>
+  <si>
+    <t>登录界面提示“请输入用户名和密码”</t>
+  </si>
+  <si>
+    <t>用户名：admin
+密码：（空）</t>
+  </si>
+  <si>
+    <t>登录界面提示“请输入登录密码”</t>
+  </si>
+  <si>
+    <t>用户名：（空）
+密码：1234</t>
+  </si>
+  <si>
+    <t>登录界面提示“请输入用户名”</t>
+  </si>
+  <si>
+    <t>用户名：admin
+密码：1234</t>
+  </si>
+  <si>
+    <t>登录界面提示“密码错误”</t>
+  </si>
+  <si>
+    <t>用户名：abcd
+密码：1234</t>
+  </si>
+  <si>
+    <t>登录界面提示“该用户不存在”</t>
+  </si>
+  <si>
+    <t>用户名：admin
+密码：123456</t>
+  </si>
+  <si>
+    <t>提示登录成功，跳转到管理员操作界面</t>
   </si>
 </sst>
 </file>
@@ -174,11 +269,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,10 +283,33 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,7 +320,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -218,7 +335,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,15 +373,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,9 +395,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,6 +419,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -318,22 +442,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,7 +459,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,6 +573,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -372,79 +609,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,13 +621,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,61 +639,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,6 +650,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -553,30 +688,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,16 +717,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,15 +750,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -647,10 +758,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,143 +770,167 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -808,10 +943,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -1168,378 +1306,461 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="16384" width="9" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="17.4" spans="1:10">
-      <c r="A1" s="7" t="s">
+    <row r="1" ht="20.4" spans="1:13">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:10">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" s="16" customFormat="1" spans="1:11">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2">
+      <c r="K2" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="2">
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="2">
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="2">
+      <c r="B5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="2">
+      <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="2">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="16">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="2">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="2">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="B10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="2">
+      <c r="A11" s="16">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="B11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="2">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="B12" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="2">
+      <c r="A13" s="16">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="B13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="2">
+      <c r="A14" s="16">
         <v>12</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="B14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="2">
+      <c r="A15" s="16">
         <v>13</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="B15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="2">
+      <c r="A16" s="16">
         <v>14</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="2">
+      <c r="A17" s="16">
         <v>15</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="2">
+      <c r="A18" s="16">
         <v>16</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="2">
+      <c r="A19" s="16">
         <v>17</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="2">
+      <c r="A20" s="16">
         <v>18</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="2">
+      <c r="A21" s="16">
         <v>19</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="2">
+      <c r="A22" s="16">
         <v>20</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="16">
         <v>21</v>
       </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="I23:J23"/>
+  <mergeCells count="67">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="K23:M23"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1553,7 +1774,7 @@
   <dimension ref="A1:U61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1568,380 +1789,380 @@
   </cols>
   <sheetData>
     <row r="1" spans="11:20">
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:11">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>15</v>
+      <c r="K1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+    </row>
+    <row r="2" s="10" customFormat="1" spans="1:11">
+      <c r="A2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>17</v>
+      <c r="B3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="U3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>23</v>
+      <c r="B4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="G4">
         <v>110</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>24</v>
+      <c r="H4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>23</v>
+      <c r="B5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="G5">
         <v>111</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>19</v>
+      <c r="H5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
+      <c r="B6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="G6">
         <v>112</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>19</v>
+      <c r="H6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>17</v>
+      <c r="B7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="G7">
         <v>113</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>19</v>
+      <c r="H7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
+      <c r="B8" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>23</v>
+      <c r="D8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="G8">
         <v>114</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>25</v>
+      <c r="H8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>16</v>
+      <c r="B9" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="C9">
         <v>11</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>23</v>
+      <c r="D9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="G9">
         <v>115</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>25</v>
+      <c r="H9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>16</v>
+      <c r="B10" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="C10">
         <v>111</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>23</v>
+      <c r="D10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="G10">
         <v>116</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>25</v>
+      <c r="H10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>16</v>
+      <c r="B11" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="C11">
         <v>1111</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>23</v>
+      <c r="D11" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="G11">
         <v>117</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>25</v>
+      <c r="H11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>16</v>
+      <c r="B12" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="C12">
         <v>11111</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>23</v>
+      <c r="D12" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="G12">
         <v>118</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>25</v>
+      <c r="H12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>16</v>
+      <c r="B13" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="C13">
         <v>111111</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>23</v>
+      <c r="D13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="G13">
         <v>119</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>30</v>
+      <c r="H13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>16</v>
+      <c r="B14" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="C14">
         <v>111111</v>
@@ -1949,535 +2170,535 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>23</v>
+      <c r="E14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="G14">
         <v>120</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="5" t="s">
+      <c r="H14" s="13" t="s">
         <v>31</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>16</v>
+      <c r="B15" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="C15">
         <v>111111</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>23</v>
+      <c r="D15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="G15">
         <v>121</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="5" t="s">
+      <c r="H15" s="13" t="s">
         <v>31</v>
       </c>
+      <c r="I15" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="K15" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>16</v>
+      <c r="B16" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="C16">
         <v>111111</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>23</v>
+      <c r="D16" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="G16">
         <v>122</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="5" t="s">
+      <c r="H16" s="13" t="s">
         <v>31</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>16</v>
+      <c r="B17" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="C17">
         <v>111111</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>23</v>
+      <c r="D17" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="G17">
         <v>123</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="5" t="s">
+      <c r="H17" s="13" t="s">
         <v>31</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>16</v>
+      <c r="B18" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="C18">
         <v>111111</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>23</v>
+      <c r="F18" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="G18">
         <v>124</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="5" t="s">
+      <c r="H18" s="13" t="s">
         <v>31</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>16</v>
+      <c r="B19" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="C19">
         <v>111111</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>23</v>
+      <c r="D19" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="G19">
         <v>125</v>
       </c>
-      <c r="H19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>36</v>
+      <c r="H19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
+      <c r="B20" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="C20">
         <v>111111</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>17</v>
+      <c r="D20" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="G20">
         <v>126</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>37</v>
+      <c r="H20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>16</v>
+      <c r="B21" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="C21">
         <v>111111</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>38</v>
+      <c r="D21" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>16</v>
+      <c r="B22" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="C22">
         <v>111111</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>23</v>
+      <c r="D22" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="G22">
         <v>127</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>18</v>
+      <c r="H22" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="I22" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>40</v>
+      <c r="B23" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>40</v>
+      <c r="B24" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="I24" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>40</v>
+      <c r="B25" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C25">
         <v>111111</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>40</v>
+      <c r="B26" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>40</v>
+      <c r="D26" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>40</v>
+      <c r="B27" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C27">
         <v>11</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>40</v>
+      <c r="D27" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="I27" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>40</v>
+      <c r="B28" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C28">
         <v>111</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>40</v>
+      <c r="D28" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="I28" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>40</v>
+      <c r="B29" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C29">
         <v>1111</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>40</v>
+      <c r="D29" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="I29" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>40</v>
+      <c r="B30" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C30">
         <v>11111</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>40</v>
+      <c r="D30" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="I30" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>40</v>
+      <c r="B31" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C31">
         <v>111111</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>40</v>
+      <c r="D31" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="I31" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>40</v>
+      <c r="B32" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C32">
         <v>111111</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>40</v>
+      <c r="D32" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="I32" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>40</v>
+      <c r="B33" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C33">
         <v>111111</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>40</v>
+      <c r="D33" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="I33" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>40</v>
+      <c r="B34" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C34">
         <v>111111</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>40</v>
+      <c r="D34" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="I34" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>40</v>
+      <c r="B35" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C35">
         <v>111111</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>40</v>
+      <c r="D35" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="I35" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>40</v>
+      <c r="B36" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C36">
         <v>111111</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>40</v>
+      <c r="D36" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="I36" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2485,7 +2706,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2493,7 +2714,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2501,7 +2722,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2509,7 +2730,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2517,7 +2738,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2525,7 +2746,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2533,7 +2754,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2541,7 +2762,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2549,7 +2770,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2557,7 +2778,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2565,7 +2786,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2573,7 +2794,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2581,7 +2802,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2589,7 +2810,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2597,7 +2818,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2605,7 +2826,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2613,7 +2834,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2621,7 +2842,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2629,7 +2850,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2637,7 +2858,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2645,7 +2866,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -2678,29 +2899,193 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="27.6666666666667" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.6666666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="39.5555555555556" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+    <row r="1" ht="20.4" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15.6" spans="1:5">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" ht="51" customHeight="1" spans="1:5">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" ht="43.2" spans="1:5">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" ht="43.2" spans="1:5">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" ht="43.2" spans="1:5">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" ht="43.2" spans="1:5">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" ht="43.2" spans="1:5">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2.PreliminaryDesign/点餐系统测试用例.xlsx
+++ b/2.PreliminaryDesign/点餐系统测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9947" activeTab="2"/>
+    <workbookView windowWidth="13440" windowHeight="8927" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="界面测试用例" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
   <si>
     <t>界面测试用例</t>
   </si>
@@ -33,7 +33,7 @@
     <t>结果</t>
   </si>
   <si>
-    <t>界面跳转</t>
+    <t>登录注册界面跳转</t>
   </si>
   <si>
     <t>未登录情况打开页面</t>
@@ -42,7 +42,7 @@
     <t>打开登录页面</t>
   </si>
   <si>
-    <t>在登录页面选择注册</t>
+    <t>在登录页面选择去注册</t>
   </si>
   <si>
     <t>跳转到注册页面</t>
@@ -54,22 +54,79 @@
     <t>跳转到登录页面</t>
   </si>
   <si>
-    <t>在用户操作界面选择个人信息</t>
+    <t>用户界面跳转</t>
+  </si>
+  <si>
+    <t>在用户操作界面选择个人信息-账号信息</t>
   </si>
   <si>
     <t>跳转到个人信息详情页</t>
   </si>
   <si>
-    <t>选择修改信息</t>
-  </si>
-  <si>
-    <t>跳转到修改信息页</t>
-  </si>
-  <si>
-    <t>选择今日推荐菜单</t>
+    <t>在用户界面选择个人信息-修改密码</t>
+  </si>
+  <si>
+    <t>跳转到修改密码页面</t>
+  </si>
+  <si>
+    <t>在用户界面选择今日菜单-今日推荐</t>
   </si>
   <si>
     <t>跳转到今日推荐菜单页面</t>
+  </si>
+  <si>
+    <t>在用户界面选择今日菜单-全部菜单</t>
+  </si>
+  <si>
+    <t>跳转到全部菜单页面</t>
+  </si>
+  <si>
+    <t>在用户界面选择打扫值日人员</t>
+  </si>
+  <si>
+    <t>跳转到打扫人员界面</t>
+  </si>
+  <si>
+    <t>管理员界面跳转</t>
+  </si>
+  <si>
+    <t>管理员界面选择所有菜单-全部菜品</t>
+  </si>
+  <si>
+    <t>跳转到全部菜品页面</t>
+  </si>
+  <si>
+    <t>选择里所有菜单-今日推荐</t>
+  </si>
+  <si>
+    <t>跳转到今日推荐页面</t>
+  </si>
+  <si>
+    <t>选择所有菜单-今日菜单</t>
+  </si>
+  <si>
+    <t>跳转到今日菜单</t>
+  </si>
+  <si>
+    <t>选择所有菜单-今日订餐</t>
+  </si>
+  <si>
+    <t>跳转到今日订餐</t>
+  </si>
+  <si>
+    <t>选择打扫值日</t>
+  </si>
+  <si>
+    <t>选择用户管理</t>
+  </si>
+  <si>
+    <t>跳转到所有用户详情页</t>
+  </si>
+  <si>
+    <t>选择统计人数</t>
+  </si>
+  <si>
+    <t>跳转到今日订餐情况</t>
   </si>
   <si>
     <t>普通用户功能测试</t>
@@ -246,21 +303,21 @@
 密码：1234</t>
   </si>
   <si>
-    <t>登录界面提示“密码错误”</t>
+    <t>登录界面提示“用户名或密码错误”</t>
   </si>
   <si>
     <t>用户名：abcd
 密码：1234</t>
   </si>
   <si>
-    <t>登录界面提示“该用户不存在”</t>
-  </si>
-  <si>
     <t>用户名：admin
 密码：123456</t>
   </si>
   <si>
     <t>提示登录成功，跳转到管理员操作界面</t>
+  </si>
+  <si>
+    <t>管理员菜单管理功能</t>
   </si>
 </sst>
 </file>
@@ -268,8 +325,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -313,24 +370,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -342,31 +386,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,7 +401,61 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,39 +470,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,13 +484,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -456,6 +513,66 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -465,7 +582,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,109 +666,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,55 +696,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,8 +713,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,17 +764,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,50 +807,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -758,10 +815,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -770,137 +827,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -916,12 +973,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -942,9 +993,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1306,10 +1354,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -1335,365 +1383,337 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" s="16" customFormat="1" spans="1:11">
-      <c r="A2" s="16" t="s">
+    <row r="2" s="13" customFormat="1" spans="1:11">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="16">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
       <c r="K3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="16">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
       <c r="K4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="16">
+      <c r="A5" s="13">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
       <c r="K5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="16">
+      <c r="A6" s="13">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="13">
         <v>5</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="3" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="13">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="13">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="13">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="13">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="13">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="13">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="16">
-        <v>5</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11" t="s">
+      <c r="B15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="13">
         <v>14</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="3" t="s">
+      <c r="B16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="13">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="16">
-        <v>6</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="16">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="16">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="16">
-        <v>9</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="16">
-        <v>10</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="16">
-        <v>11</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="16">
-        <v>12</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="16">
-        <v>13</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="16">
-        <v>14</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="16">
-        <v>15</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="16">
-        <v>16</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="16">
-        <v>17</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="16">
-        <v>18</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="16">
-        <v>19</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="16">
-        <v>20</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="16">
-        <v>21</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="B17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="49">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:J2"/>
@@ -1743,24 +1763,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:J17"/>
     <mergeCell ref="K17:M17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="K23:M23"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1789,380 +1791,380 @@
   </cols>
   <sheetData>
     <row r="1" spans="11:20">
-      <c r="K1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-    </row>
-    <row r="2" s="10" customFormat="1" spans="1:11">
-      <c r="A2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="K1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+    </row>
+    <row r="2" s="8" customFormat="1" spans="1:11">
+      <c r="A2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>28</v>
+      <c r="C2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>30</v>
+      <c r="B3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>32</v>
+        <v>49</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="U3" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>36</v>
+      <c r="B4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="G4">
         <v>110</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>37</v>
+      <c r="H4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>36</v>
+      <c r="B5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="G5">
         <v>111</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>32</v>
+      <c r="H5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>36</v>
+      <c r="B6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="G6">
         <v>112</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>32</v>
+      <c r="H6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>30</v>
+      <c r="B7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="G7">
         <v>113</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>32</v>
+      <c r="H7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>29</v>
+      <c r="B8" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>36</v>
+      <c r="D8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="G8">
         <v>114</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>38</v>
+      <c r="H8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>29</v>
+      <c r="B9" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="C9">
         <v>11</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>36</v>
+      <c r="D9" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="G9">
         <v>115</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>38</v>
+      <c r="H9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>29</v>
+      <c r="B10" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="C10">
         <v>111</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>36</v>
+      <c r="D10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="G10">
         <v>116</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>38</v>
+      <c r="H10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>29</v>
+      <c r="B11" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="C11">
         <v>1111</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>36</v>
+      <c r="D11" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="G11">
         <v>117</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>38</v>
+      <c r="H11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>29</v>
+      <c r="B12" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="C12">
         <v>11111</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>36</v>
+      <c r="D12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="G12">
         <v>118</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>38</v>
+      <c r="H12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>29</v>
+      <c r="B13" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="C13">
         <v>111111</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>36</v>
+      <c r="D13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="G13">
         <v>119</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>43</v>
+      <c r="H13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>29</v>
+      <c r="B14" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="C14">
         <v>111111</v>
@@ -2170,535 +2172,535 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>36</v>
+      <c r="E14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="G14">
         <v>120</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>44</v>
+      <c r="H14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>29</v>
+      <c r="B15" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="C15">
         <v>111111</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>36</v>
+      <c r="D15" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="G15">
         <v>121</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>44</v>
+      <c r="H15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="K15" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>29</v>
+      <c r="B16" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="C16">
         <v>111111</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>36</v>
+      <c r="D16" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="G16">
         <v>122</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>44</v>
+      <c r="H16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>29</v>
+      <c r="B17" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="C17">
         <v>111111</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>36</v>
+      <c r="D17" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="G17">
         <v>123</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>44</v>
+      <c r="H17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>29</v>
+      <c r="B18" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="C18">
         <v>111111</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>36</v>
+      <c r="D18" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="G18">
         <v>124</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>44</v>
+      <c r="H18" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>29</v>
+      <c r="B19" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="C19">
         <v>111111</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>36</v>
+      <c r="D19" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="G19">
         <v>125</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>49</v>
+      <c r="H19" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>29</v>
+      <c r="B20" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="C20">
         <v>111111</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>30</v>
+      <c r="D20" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="G20">
         <v>126</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="13" t="s">
+      <c r="H20" s="11" t="s">
         <v>50</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>29</v>
+      <c r="B21" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="C21">
         <v>111111</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>51</v>
+      <c r="D21" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>29</v>
+      <c r="B22" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="C22">
         <v>111111</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>36</v>
+      <c r="D22" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="G22">
         <v>127</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>31</v>
+      <c r="H22" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="I22" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>53</v>
+      <c r="B23" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>53</v>
+      <c r="H24" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="I24" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>53</v>
+      <c r="B25" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C25">
         <v>111111</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="I25" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>53</v>
+      <c r="B26" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="13" t="s">
+      <c r="D26" s="14" t="s">
         <v>53</v>
       </c>
+      <c r="H26" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="I26" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>53</v>
+      <c r="B27" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C27">
         <v>11</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="13" t="s">
+      <c r="D27" s="14" t="s">
         <v>53</v>
       </c>
+      <c r="H27" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="I27" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>53</v>
+      <c r="B28" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C28">
         <v>111</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="13" t="s">
+      <c r="D28" s="14" t="s">
         <v>53</v>
       </c>
+      <c r="H28" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="I28" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>53</v>
+      <c r="B29" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C29">
         <v>1111</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="13" t="s">
+      <c r="D29" s="14" t="s">
         <v>53</v>
       </c>
+      <c r="H29" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="I29" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>53</v>
+      <c r="B30" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C30">
         <v>11111</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H30" s="13" t="s">
+      <c r="D30" s="14" t="s">
         <v>53</v>
       </c>
+      <c r="H30" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="I30" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>53</v>
+      <c r="B31" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C31">
         <v>111111</v>
       </c>
-      <c r="D31" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>53</v>
+      <c r="D31" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>53</v>
+      <c r="B32" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C32">
         <v>111111</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>53</v>
+      <c r="D32" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>53</v>
+      <c r="B33" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C33">
         <v>111111</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>53</v>
+      <c r="D33" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="I33" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>53</v>
+      <c r="B34" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C34">
         <v>111111</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>53</v>
+      <c r="D34" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>53</v>
+      <c r="B35" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C35">
         <v>111111</v>
       </c>
-      <c r="D35" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>53</v>
+      <c r="D35" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="I35" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>53</v>
+      <c r="B36" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C36">
         <v>111111</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="H36" s="13" t="s">
+      <c r="D36" s="14" t="s">
         <v>53</v>
       </c>
+      <c r="H36" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="I36" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2706,7 +2708,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2714,7 +2716,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2722,7 +2724,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2730,7 +2732,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2738,7 +2740,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2746,7 +2748,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2754,7 +2756,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2762,7 +2764,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2770,7 +2772,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2778,7 +2780,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2786,7 +2788,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2794,7 +2796,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2802,7 +2804,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2810,7 +2812,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2818,7 +2820,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2826,7 +2828,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2834,7 +2836,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2842,7 +2844,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2850,7 +2852,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2858,7 +2860,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2866,7 +2868,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -2907,8 +2909,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="9" style="3"/>
+    <col min="1" max="1" width="12" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.3333333333333" style="3" customWidth="1"/>
     <col min="3" max="3" width="27.6666666666667" style="3" customWidth="1"/>
     <col min="4" max="4" width="31.6666666666667" style="3" customWidth="1"/>
     <col min="5" max="5" width="39.5555555555556" style="3" customWidth="1"/>
@@ -2917,28 +2919,28 @@
   <sheetData>
     <row r="1" ht="20.4" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="15.6" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>26</v>
+      <c r="C2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" ht="51" customHeight="1" spans="1:5">
@@ -2946,16 +2948,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>68</v>
+        <v>84</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="1:5">
@@ -2963,16 +2965,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>70</v>
+        <v>84</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" ht="43.2" spans="1:5">
@@ -2980,16 +2982,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>72</v>
+        <v>84</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:5">
@@ -2997,16 +2999,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>74</v>
+        <v>84</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7" ht="43.2" spans="1:5">
@@ -3014,16 +3016,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>76</v>
+        <v>84</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="8" ht="43.2" spans="1:5">
@@ -3031,21 +3033,24 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>84</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:1">

--- a/2.PreliminaryDesign/点餐系统测试用例.xlsx
+++ b/2.PreliminaryDesign/点餐系统测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>界面测试用例</t>
   </si>
@@ -157,6 +157,27 @@
   </si>
   <si>
     <t>管理员功能测试</t>
+  </si>
+  <si>
+    <t>管理员登录</t>
+  </si>
+  <si>
+    <t>请输入账号和密码</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>请输入账号</t>
+  </si>
+  <si>
+    <t>请输入密码</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>账号或密码错误</t>
   </si>
 </sst>
 </file>
@@ -783,26 +804,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1178,23 +1199,23 @@
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:6">
+    <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="7"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -1227,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:U61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1243,18 +1264,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="11:20">
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:11">
+      <c r="L1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1279,13 +1300,13 @@
       <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1293,28 +1314,28 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="U3" t="s">
@@ -1325,28 +1346,28 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G4">
         <v>110</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1354,28 +1375,28 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G5">
         <v>111</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1383,28 +1404,28 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G6">
         <v>112</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1412,28 +1433,28 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G7">
         <v>113</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1441,7 +1462,7 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C8">
@@ -1450,19 +1471,19 @@
       <c r="D8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G8">
         <v>114</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1470,7 +1491,7 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C9">
@@ -1479,19 +1500,19 @@
       <c r="D9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G9">
         <v>115</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1499,7 +1520,7 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C10">
@@ -1508,19 +1529,19 @@
       <c r="D10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G10">
         <v>116</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1528,7 +1549,7 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C11">
@@ -1537,19 +1558,19 @@
       <c r="D11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G11">
         <v>117</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1557,7 +1578,7 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C12">
@@ -1566,19 +1587,19 @@
       <c r="D12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G12">
         <v>118</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1586,28 +1607,28 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C13">
         <v>111111</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G13">
         <v>119</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1615,7 +1636,7 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C14">
@@ -1624,19 +1645,19 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G14">
         <v>120</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1644,7 +1665,7 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C15">
@@ -1653,19 +1674,19 @@
       <c r="D15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G15">
         <v>121</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="6" t="s">
         <v>28</v>
       </c>
       <c r="K15" t="s">
@@ -1676,7 +1697,7 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C16">
@@ -1685,19 +1706,19 @@
       <c r="D16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G16">
         <v>122</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1705,7 +1726,7 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C17">
@@ -1714,19 +1735,19 @@
       <c r="D17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G17">
         <v>123</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1734,7 +1755,7 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C18">
@@ -1743,19 +1764,19 @@
       <c r="D18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G18">
         <v>124</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1763,7 +1784,7 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C19">
@@ -1772,19 +1793,19 @@
       <c r="D19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G19">
         <v>125</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1792,7 +1813,7 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C20">
@@ -1801,19 +1822,19 @@
       <c r="D20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G20">
         <v>126</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1821,7 +1842,7 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C21">
@@ -1830,19 +1851,19 @@
       <c r="D21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1850,7 +1871,7 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C22">
@@ -1859,16 +1880,16 @@
       <c r="D22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G22">
         <v>127</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I22" t="s">
@@ -1879,16 +1900,16 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="7" t="s">
         <v>37</v>
       </c>
       <c r="I23" t="s">
@@ -1899,7 +1920,7 @@
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C24" t="s">
@@ -1908,7 +1929,7 @@
       <c r="D24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="7" t="s">
         <v>37</v>
       </c>
       <c r="I24" t="s">
@@ -1919,7 +1940,7 @@
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C25">
@@ -1928,7 +1949,7 @@
       <c r="D25" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="7" t="s">
         <v>37</v>
       </c>
       <c r="I25" t="s">
@@ -1939,7 +1960,7 @@
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C26">
@@ -1948,7 +1969,7 @@
       <c r="D26" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="7" t="s">
         <v>37</v>
       </c>
       <c r="I26" t="s">
@@ -1959,7 +1980,7 @@
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C27">
@@ -1968,7 +1989,7 @@
       <c r="D27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="7" t="s">
         <v>37</v>
       </c>
       <c r="I27" t="s">
@@ -1979,7 +2000,7 @@
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C28">
@@ -1988,7 +2009,7 @@
       <c r="D28" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="7" t="s">
         <v>37</v>
       </c>
       <c r="I28" t="s">
@@ -1999,7 +2020,7 @@
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C29">
@@ -2008,7 +2029,7 @@
       <c r="D29" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="7" t="s">
         <v>37</v>
       </c>
       <c r="I29" t="s">
@@ -2019,7 +2040,7 @@
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C30">
@@ -2028,7 +2049,7 @@
       <c r="D30" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="7" t="s">
         <v>37</v>
       </c>
       <c r="I30" t="s">
@@ -2039,7 +2060,7 @@
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C31">
@@ -2048,7 +2069,7 @@
       <c r="D31" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="7" t="s">
         <v>37</v>
       </c>
       <c r="I31" t="s">
@@ -2059,7 +2080,7 @@
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C32">
@@ -2068,7 +2089,7 @@
       <c r="D32" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="7" t="s">
         <v>37</v>
       </c>
       <c r="I32" t="s">
@@ -2079,7 +2100,7 @@
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C33">
@@ -2088,7 +2109,7 @@
       <c r="D33" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="7" t="s">
         <v>37</v>
       </c>
       <c r="I33" t="s">
@@ -2099,7 +2120,7 @@
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C34">
@@ -2108,7 +2129,7 @@
       <c r="D34" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H34" s="7" t="s">
         <v>37</v>
       </c>
       <c r="I34" t="s">
@@ -2119,7 +2140,7 @@
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C35">
@@ -2128,7 +2149,7 @@
       <c r="D35" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="7" t="s">
         <v>37</v>
       </c>
       <c r="I35" t="s">
@@ -2139,7 +2160,7 @@
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C36">
@@ -2148,7 +2169,7 @@
       <c r="D36" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="7" t="s">
         <v>37</v>
       </c>
       <c r="I36" t="s">
@@ -2353,29 +2374,335 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="14.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="14.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="17.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="16.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="16.8888888888889" customWidth="1"/>
+    <col min="6" max="6" width="19.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="16.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="32" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2.PreliminaryDesign/点餐系统测试用例.xlsx
+++ b/2.PreliminaryDesign/点餐系统测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110">
   <si>
     <t>界面测试用例</t>
   </si>
@@ -282,6 +282,9 @@
 密码：（空）</t>
   </si>
   <si>
+    <t>输入测试数据后选择登录</t>
+  </si>
+  <si>
     <t>登录界面提示“请输入用户名和密码”</t>
   </si>
   <si>
@@ -317,7 +320,41 @@
     <t>提示登录成功，跳转到管理员操作界面</t>
   </si>
   <si>
-    <t>管理员菜单管理功能</t>
+    <t>添加新菜</t>
+  </si>
+  <si>
+    <t>成功登录管理员界面并
+在“全部菜单”界面</t>
+  </si>
+  <si>
+    <t>菜品删除</t>
+  </si>
+  <si>
+    <t>添加推荐</t>
+  </si>
+  <si>
+    <t>添加到菜单</t>
+  </si>
+  <si>
+    <t>添加到订餐</t>
+  </si>
+  <si>
+    <t>推荐菜单移除</t>
+  </si>
+  <si>
+    <t>从今日菜单移除</t>
+  </si>
+  <si>
+    <t>从今日订餐移除</t>
+  </si>
+  <si>
+    <t>生成最终菜单</t>
+  </si>
+  <si>
+    <t>生成打扫值日</t>
+  </si>
+  <si>
+    <t>用户管理</t>
   </si>
 </sst>
 </file>
@@ -325,10 +362,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -364,28 +401,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -401,22 +416,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -424,23 +423,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,22 +446,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,9 +492,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -504,6 +503,44 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -516,19 +553,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,7 +583,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,13 +655,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,25 +673,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,91 +715,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,30 +744,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -745,32 +758,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,6 +794,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -815,10 +852,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -827,133 +864,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1357,7 +1394,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -2901,23 +2938,24 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12" style="2" customWidth="1"/>
     <col min="2" max="2" width="19.3333333333333" style="3" customWidth="1"/>
     <col min="3" max="3" width="27.6666666666667" style="3" customWidth="1"/>
     <col min="4" max="4" width="31.6666666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="39.5555555555556" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="5" max="5" width="28.4444444444444" style="3" customWidth="1"/>
+    <col min="6" max="6" width="39.5555555555556" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.4" spans="1:5">
+    <row r="1" ht="20.4" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>81</v>
       </c>
@@ -2925,8 +2963,9 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15.6" spans="1:5">
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="15.6" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2939,11 +2978,14 @@
       <c r="D2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" ht="51" customHeight="1" spans="1:5">
+    <row r="3" ht="51" customHeight="1" spans="1:6">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2956,11 +2998,14 @@
       <c r="D3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" ht="43.2" spans="1:5">
+      <c r="F3" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" ht="43.2" spans="1:6">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2971,13 +3016,16 @@
         <v>85</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" ht="43.2" spans="1:5">
+      <c r="E4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" ht="43.2" spans="1:6">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2988,13 +3036,16 @@
         <v>85</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" ht="43.2" spans="1:5">
+      <c r="E5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" ht="43.2" spans="1:6">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -3005,13 +3056,16 @@
         <v>85</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" ht="43.2" spans="1:5">
+      <c r="E6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" ht="43.2" spans="1:6">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -3022,13 +3076,16 @@
         <v>85</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" ht="43.2" spans="1:5">
+    </row>
+    <row r="8" ht="43.2" spans="1:6">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -3039,58 +3096,425 @@
         <v>85</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="E8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" ht="33" customHeight="1" spans="1:3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>98</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" ht="33" customHeight="1" spans="1:3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="B10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" ht="33" customHeight="1" spans="1:3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" ht="33" customHeight="1" spans="1:3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="B12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" ht="33" customHeight="1" spans="1:3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" ht="33" customHeight="1" spans="1:3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
+      <c r="B16" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="2">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2.PreliminaryDesign/点餐系统测试用例.xlsx
+++ b/2.PreliminaryDesign/点餐系统测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13440" windowHeight="8927" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9947" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="界面测试用例" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
   <si>
     <t>界面测试用例</t>
   </si>
@@ -279,7 +279,8 @@
   </si>
   <si>
     <t>用户名：（空）
-密码：（空）</t>
+密码：（空）
+登录方式：管理员</t>
   </si>
   <si>
     <t>输入测试数据后选择登录</t>
@@ -289,35 +290,66 @@
   </si>
   <si>
     <t>用户名：admin
-密码：（空）</t>
+密码：（空）
+登录方式：管理员</t>
   </si>
   <si>
     <t>登录界面提示“请输入登录密码”</t>
   </si>
   <si>
     <t>用户名：（空）
-密码：1234</t>
+密码：1234
+登录方式：管理员</t>
   </si>
   <si>
     <t>登录界面提示“请输入用户名”</t>
   </si>
   <si>
     <t>用户名：admin
-密码：1234</t>
+密码：1234
+登录方式：管理员</t>
   </si>
   <si>
     <t>登录界面提示“用户名或密码错误”</t>
   </si>
   <si>
     <t>用户名：abcd
-密码：1234</t>
-  </si>
-  <si>
-    <t>用户名：admin
-密码：123456</t>
-  </si>
-  <si>
-    <t>提示登录成功，跳转到管理员操作界面</t>
+密码：1234
+登录方式：管理员</t>
+  </si>
+  <si>
+    <r>
+      <t>用户名：admin
+密码：123456
+登录方式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理员</t>
+    </r>
+  </si>
+  <si>
+    <t>登录界面提示“登录成功”，跳转到
+管理员页面</t>
+  </si>
+  <si>
+    <r>
+      <t>用户名：admin
+密码：123456
+登录方式：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户</t>
+    </r>
   </si>
   <si>
     <t>添加新菜</t>
@@ -362,12 +394,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +433,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -408,7 +455,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,78 +553,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -503,21 +565,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -530,17 +577,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -553,13 +592,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,6 +706,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -589,31 +742,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,109 +766,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,16 +787,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,30 +817,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,11 +838,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,16 +855,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -852,10 +891,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -864,137 +903,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1018,6 +1057,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1420,331 +1465,331 @@
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" s="13" customFormat="1" spans="1:11">
-      <c r="A2" s="13" t="s">
+    <row r="2" s="15" customFormat="1" spans="1:11">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="13">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="13">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="13">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
       <c r="K5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="13">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="13">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="13">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="13">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="13">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="13">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="13">
+      <c r="A12" s="15">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9" t="s">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
       <c r="K12" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="13">
+      <c r="A13" s="15">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
       <c r="K13" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="13">
+      <c r="A14" s="15">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
       <c r="K14" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="13">
+      <c r="A15" s="15">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
       <c r="K15" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="13">
+      <c r="A16" s="15">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
       <c r="K16" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="13">
+      <c r="A17" s="15">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
       <c r="K17" s="3" t="s">
         <v>36</v>
       </c>
@@ -1839,38 +1884,38 @@
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
     </row>
-    <row r="2" s="8" customFormat="1" spans="1:11">
-      <c r="A2" s="9" t="s">
+    <row r="2" s="10" customFormat="1" spans="1:11">
+      <c r="A2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1878,28 +1923,28 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="13" t="s">
         <v>49</v>
       </c>
       <c r="G3" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="13" t="s">
         <v>51</v>
       </c>
       <c r="U3" t="s">
@@ -1910,28 +1955,28 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G4">
         <v>110</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="13" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1939,28 +1984,28 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G5">
         <v>111</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="13" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1968,28 +2013,28 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G6">
         <v>112</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="13" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1997,28 +2042,28 @@
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="13" t="s">
         <v>49</v>
       </c>
       <c r="G7">
         <v>113</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="13" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2026,28 +2071,28 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G8">
         <v>114</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="13" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2055,28 +2100,28 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C9">
         <v>11</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G9">
         <v>115</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="13" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2084,28 +2129,28 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C10">
         <v>111</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G10">
         <v>116</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="13" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2113,28 +2158,28 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C11">
         <v>1111</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G11">
         <v>117</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="13" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2142,28 +2187,28 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C12">
         <v>11111</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G12">
         <v>118</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="13" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2171,28 +2216,28 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C13">
         <v>111111</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G13">
         <v>119</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="13" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2200,7 +2245,7 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C14">
@@ -2209,19 +2254,19 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G14">
         <v>120</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="13" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2229,28 +2274,28 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C15">
         <v>111111</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G15">
         <v>121</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="13" t="s">
         <v>63</v>
       </c>
       <c r="K15" t="s">
@@ -2261,28 +2306,28 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C16">
         <v>111111</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G16">
         <v>122</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="13" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2290,28 +2335,28 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C17">
         <v>111111</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G17">
         <v>123</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="13" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2319,28 +2364,28 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C18">
         <v>111111</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G18">
         <v>124</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="13" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2348,28 +2393,28 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C19">
         <v>111111</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G19">
         <v>125</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="13" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2377,28 +2422,28 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C20">
         <v>111111</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="13" t="s">
         <v>49</v>
       </c>
       <c r="G20">
         <v>126</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="13" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2406,28 +2451,28 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C21">
         <v>111111</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="13" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2435,25 +2480,25 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C22">
         <v>111111</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G22">
         <v>127</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="13" t="s">
         <v>50</v>
       </c>
       <c r="I22" t="s">
@@ -2464,16 +2509,16 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C23" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I23" t="s">
@@ -2484,16 +2529,16 @@
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C24" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I24" t="s">
@@ -2504,7 +2549,7 @@
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C25">
@@ -2513,7 +2558,7 @@
       <c r="D25" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I25" t="s">
@@ -2524,16 +2569,16 @@
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I26" t="s">
@@ -2544,16 +2589,16 @@
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C27">
         <v>11</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I27" t="s">
@@ -2564,16 +2609,16 @@
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C28">
         <v>111</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I28" t="s">
@@ -2584,16 +2629,16 @@
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C29">
         <v>1111</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I29" t="s">
@@ -2604,16 +2649,16 @@
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C30">
         <v>11111</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I30" t="s">
@@ -2624,16 +2669,16 @@
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C31">
         <v>111111</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I31" t="s">
@@ -2644,16 +2689,16 @@
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C32">
         <v>111111</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I32" t="s">
@@ -2664,16 +2709,16 @@
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C33">
         <v>111111</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I33" t="s">
@@ -2684,16 +2729,16 @@
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C34">
         <v>111111</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I34" t="s">
@@ -2704,16 +2749,16 @@
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C35">
         <v>111111</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I35" t="s">
@@ -2724,16 +2769,16 @@
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="13" t="s">
         <v>72</v>
       </c>
       <c r="C36">
         <v>111111</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="13" t="s">
         <v>72</v>
       </c>
       <c r="I36" t="s">
@@ -2938,10 +2983,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -3095,25 +3140,34 @@
       <c r="C8" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="8" t="s">
         <v>96</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" ht="33" customHeight="1" spans="1:3">
+    <row r="9" ht="43.2" spans="1:6">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>99</v>
+      <c r="E9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:3">
@@ -3121,10 +3175,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:3">
@@ -3132,10 +3186,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:3">
@@ -3143,10 +3197,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:3">
@@ -3154,10 +3208,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:3">
@@ -3165,18 +3219,21 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+    </row>
+    <row r="15" ht="33" customHeight="1" spans="1:3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>101</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3184,7 +3241,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3192,7 +3249,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3208,7 +3265,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3216,7 +3273,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3224,7 +3281,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3240,7 +3297,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3248,7 +3305,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3256,7 +3313,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3272,7 +3329,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3280,7 +3337,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3288,7 +3345,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3304,7 +3361,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3312,7 +3369,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3320,7 +3377,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3336,7 +3393,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3344,7 +3401,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3352,7 +3409,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3368,7 +3425,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3376,7 +3433,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3384,7 +3441,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3400,7 +3457,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3416,7 +3473,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3424,12 +3481,15 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>45</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:1">
@@ -3510,6 +3570,11 @@
     <row r="63" spans="1:1">
       <c r="A63" s="2">
         <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="2">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/2.PreliminaryDesign/点餐系统测试用例.xlsx
+++ b/2.PreliminaryDesign/点餐系统测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9947" activeTab="2"/>
+    <workbookView windowWidth="17388" windowHeight="10115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="界面测试用例" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
   <si>
     <t>界面测试用例</t>
   </si>
@@ -141,13 +141,7 @@
     <t>密码测试数据</t>
   </si>
   <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>部门</t>
-  </si>
-  <si>
-    <t>员工号</t>
+    <t>用户类型选择</t>
   </si>
   <si>
     <t>页面操作</t>
@@ -162,52 +156,25 @@
     <t>备注(预期结果与实际结果比较)</t>
   </si>
   <si>
-    <t>注册功能</t>
+    <t>登录</t>
   </si>
   <si>
     <t>空</t>
   </si>
   <si>
-    <t>注册</t>
-  </si>
-  <si>
-    <t>请填写注册信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>普通用户</t>
+  </si>
+  <si>
+    <t>用户名或密码不能为空</t>
   </si>
   <si>
     <t>000000</t>
   </si>
   <si>
-    <t>吴亦凡</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>请设置账号</t>
-  </si>
-  <si>
-    <t>请输入正确的账号</t>
-  </si>
-  <si>
-    <t>000001</t>
-  </si>
-  <si>
-    <t>000002</t>
-  </si>
-  <si>
-    <t>000003</t>
-  </si>
-  <si>
-    <t>000004</t>
-  </si>
-  <si>
-    <t>请设置密码</t>
-  </si>
-  <si>
-    <t>请设置合法的密码</t>
+    <t>用户名或密码不正确</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>00</t>
@@ -220,33 +187,6 @@
   </si>
   <si>
     <t>00000</t>
-  </si>
-  <si>
-    <t>请输入姓名</t>
-  </si>
-  <si>
-    <t>请输入部门</t>
-  </si>
-  <si>
-    <t>请输入员工号</t>
-  </si>
-  <si>
-    <t>注册成功</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>账号、密码错误</t>
-  </si>
-  <si>
-    <t>账号错误</t>
-  </si>
-  <si>
-    <t>密码错误</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>登陆成功</t>
@@ -319,6 +259,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>用户名：admin
 密码：123456
 登录方式：</t>
@@ -327,6 +272,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>管理员</t>
@@ -338,6 +284,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>用户名：admin
 密码：123456
 登录方式：</t>
@@ -346,6 +297,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>用户</t>
@@ -396,8 +348,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -433,7 +385,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,9 +400,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -461,8 +421,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,32 +460,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -521,6 +482,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -528,9 +497,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,23 +513,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -580,7 +532,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -592,187 +543,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,16 +738,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -812,11 +772,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,8 +805,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,38 +814,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -891,145 +842,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1073,20 +1024,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1855,10 +1806,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U61"/>
+  <dimension ref="A1:R41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1866,25 +1817,25 @@
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="14.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="19.8888888888889" customWidth="1"/>
-    <col min="4" max="8" width="15.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="19.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="13.5555555555556" customWidth="1"/>
-    <col min="11" max="11" width="30.7777777777778" customWidth="1"/>
+    <col min="4" max="6" width="15.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="26.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="13.5555555555556" customWidth="1"/>
+    <col min="9" max="9" width="30.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="11:20">
-      <c r="K1" s="3" t="s">
+    <row r="1" spans="9:18">
+      <c r="I1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-    </row>
-    <row r="2" s="10" customFormat="1" spans="1:11">
+    </row>
+    <row r="2" s="10" customFormat="1" spans="1:9">
       <c r="A2" s="11" t="s">
         <v>38</v>
       </c>
@@ -1897,892 +1848,511 @@
       <c r="D2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>41</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>49</v>
+      <c r="F3" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="G3" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="U3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="F4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4">
-        <v>110</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5">
+        <v>111111</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="F5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5">
-        <v>111</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6">
-        <v>112</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="13" t="s">
+      <c r="F6" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7">
-        <v>113</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="13" t="s">
+      <c r="F7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>111</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8">
-        <v>114</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="F8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9">
+        <v>1111</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C9">
-        <v>11</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9">
-        <v>115</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="F9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>11111</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C10">
-        <v>111</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10">
-        <v>116</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="F10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11">
+        <v>111111</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C11">
-        <v>1111</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11">
-        <v>117</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="F11" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12">
+        <v>111111</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C12">
-        <v>11111</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12">
-        <v>118</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="F12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>48</v>
+      <c r="B13" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="C13">
         <v>111111</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13">
-        <v>119</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="E13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>48</v>
+      <c r="B14" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="C14">
         <v>111111</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="13" t="s">
+      <c r="D14" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="G14">
-        <v>120</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="E14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>48</v>
+      <c r="B15" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="C15">
         <v>111111</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15">
-        <v>121</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="D15" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>48</v>
+      <c r="B16" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="C16">
         <v>111111</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16">
-        <v>122</v>
-      </c>
-      <c r="H16" s="13" t="s">
+      <c r="D16" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="E16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17">
+        <v>1008</v>
+      </c>
+      <c r="D17">
+        <v>111</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C17">
-        <v>111111</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17">
-        <v>123</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18">
-        <v>111111</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18">
-        <v>124</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19">
-        <v>111111</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19">
-        <v>125</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20">
-        <v>111111</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20">
-        <v>126</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21">
-        <v>111111</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22">
-        <v>111111</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22">
-        <v>127</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="I23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="I24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25">
-        <v>111111</v>
-      </c>
-      <c r="D25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="I25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="I26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27">
-        <v>11</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="I27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28">
-        <v>111</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="I28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29">
-        <v>1111</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="I29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30">
-        <v>11111</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="I30" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31">
-        <v>111111</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="I31" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32">
-        <v>111111</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="I32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33">
-        <v>111111</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="I33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34">
-        <v>111111</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="I34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35">
-        <v>111111</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="I35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36">
-        <v>111111</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="I36" t="s">
-        <v>77</v>
+      <c r="B36" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2790,187 +2360,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+    </row>
+    <row r="39" spans="1:1">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+    </row>
+    <row r="40" spans="1:1">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+    </row>
+    <row r="41" spans="1:1">
       <c r="A41">
         <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2985,7 +2395,7 @@
   <sheetPr/>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -3002,7 +2412,7 @@
   <sheetData>
     <row r="1" ht="20.4" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3018,16 +2428,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" ht="51" customHeight="1" spans="1:6">
@@ -3035,19 +2445,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="1:6">
@@ -3055,19 +2465,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" ht="43.2" spans="1:6">
@@ -3075,19 +2485,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" ht="43.2" spans="1:6">
@@ -3095,19 +2505,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" ht="43.2" spans="1:6">
@@ -3115,19 +2525,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" ht="43.2" spans="1:6">
@@ -3135,19 +2545,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" ht="43.2" spans="1:6">
@@ -3155,19 +2565,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:3">
@@ -3175,10 +2585,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:3">
@@ -3186,10 +2596,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:3">
@@ -3197,10 +2607,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:3">
@@ -3208,10 +2618,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:3">
@@ -3219,10 +2629,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:3">
@@ -3230,10 +2640,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3241,7 +2651,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -3249,7 +2659,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -3257,7 +2667,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -3265,7 +2675,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -3273,7 +2683,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -3281,7 +2691,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -3289,7 +2699,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -3297,7 +2707,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -3305,7 +2715,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -3313,7 +2723,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -3321,7 +2731,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -3329,7 +2739,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -3337,7 +2747,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -3345,7 +2755,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -3353,7 +2763,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3361,7 +2771,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3369,7 +2779,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3377,7 +2787,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3385,7 +2795,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3393,7 +2803,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3401,7 +2811,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -3409,7 +2819,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -3417,7 +2827,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -3425,7 +2835,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3433,7 +2843,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -3441,7 +2851,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -3449,7 +2859,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -3457,7 +2867,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -3465,7 +2875,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3473,7 +2883,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -3481,7 +2891,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -3489,7 +2899,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:1">
